--- a/static/LPD/LPD 2024-2025 Budget.xlsx
+++ b/static/LPD/LPD 2024-2025 Budget.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scaninc.sharepoint.com/sites/CommunityPartners/Shared Documents/LPD/RFPs/RFP 2023 2024/RFP Process Documents - needs updated/Website Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7295A72-89B5-4C73-A986-48FF853B77A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{E27C2468-E67A-40DB-9E99-7C3609E1B289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75043BBE-AE11-40FD-AA49-A9828261DAB5}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="TJb/eP2LCnt69vxazmIA/3SJhPVAzyP3gGJRxK8AvjlFZcwQ9f+yYn5lq22uSKVyRZObhsIARrrQr5VC+gjrNQ==" workbookSaltValue="qKp5+RTnmTpNwo1MgEJv8g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Cover Sheet" sheetId="7" r:id="rId1"/>
@@ -1649,6 +1649,147 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1729,160 +1870,58 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1897,68 +1936,38 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2029,14 +2038,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2109,30 +2133,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -2157,6 +2157,32 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2213,31 +2239,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2246,14 +2249,38 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2262,33 +2289,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3165,36 +3165,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
     </row>
     <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
     </row>
     <row r="3" spans="1:4" ht="15.6">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
     </row>
     <row r="4" spans="1:4" ht="15.6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="159"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="28"/>
@@ -3203,44 +3203,44 @@
       <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="150"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="166"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="101" t="s">
@@ -3276,21 +3276,21 @@
       <c r="A14" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="134"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="164"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="3"/>
       <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="35"/>
-      <c r="B16" s="165"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="52" t="s">
         <v>15</v>
       </c>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="36"/>
-      <c r="B17" s="166"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="83" t="s">
         <v>10</v>
       </c>
@@ -3308,52 +3308,52 @@
       <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
     </row>
     <row r="19" spans="1:4" ht="23.45" customHeight="1">
-      <c r="A19" s="144" t="s">
+      <c r="A19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
     </row>
     <row r="20" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
     </row>
     <row r="21" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
       <c r="A21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
     </row>
     <row r="22" spans="1:4" ht="23.45" customHeight="1" thickBot="1">
       <c r="A22" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="149">
+      <c r="B22" s="126">
         <f>'Budget Summary'!D36</f>
         <v>0</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="128"/>
     </row>
     <row r="23" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" thickBot="1">
       <c r="A24" s="28"/>
@@ -3362,62 +3362,62 @@
       <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="126"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="157"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="158"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="160"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="137"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="158"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="160"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="137"/>
     </row>
     <row r="29" spans="1:4" ht="3" customHeight="1">
-      <c r="A29" s="161"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="163"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A30" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="143"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
     </row>
     <row r="31" spans="1:4" ht="19.149999999999999" customHeight="1" thickBot="1">
       <c r="A31" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="137"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="114"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A32" s="138"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="117"/>
     </row>
     <row r="33" spans="1:4" ht="21" customHeight="1">
       <c r="A33" s="30" t="s">
@@ -3426,36 +3426,47 @@
       <c r="B33" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
     </row>
     <row r="34" spans="1:4" ht="21" customHeight="1">
       <c r="A34" s="30"/>
       <c r="B34" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="128"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="105"/>
     </row>
     <row r="35" spans="1:4" ht="21" customHeight="1">
       <c r="A35" s="30"/>
       <c r="B35" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="129"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="107"/>
     </row>
     <row r="36" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A36" s="31"/>
       <c r="B36" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="132"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="27">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
@@ -3472,17 +3483,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D29"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3690,34 +3690,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="189"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="169"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="192"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="20"/>
@@ -3728,293 +3728,293 @@
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="170">
+      <c r="B6" s="181"/>
+      <c r="C6" s="177">
         <f>'Application Cover Sheet'!B9</f>
         <v>0</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="171"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="179"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="178"/>
-      <c r="C7" s="179" t="str">
+      <c r="B7" s="181"/>
+      <c r="C7" s="182" t="str">
         <f>'Application Cover Sheet'!B31</f>
         <v>.</v>
       </c>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="181"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="184"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="170">
+      <c r="C8" s="177">
         <f>'Application Cover Sheet'!B8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="171"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="167">
+      <c r="B11" s="190"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="193">
         <f>'Application Cover Sheet'!D13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="168"/>
-      <c r="F11" s="169"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="195"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="184" t="s">
+      <c r="A12" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="184"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="170">
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="177">
         <f>'Application Cover Sheet'!B14</f>
         <v>0</v>
       </c>
-      <c r="E12" s="176"/>
-      <c r="F12" s="171"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="184"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="167">
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="193">
         <f>'Application Cover Sheet'!D16</f>
         <v>0</v>
       </c>
-      <c r="E13" s="168"/>
-      <c r="F13" s="169"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="195"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="20"/>
       <c r="F16" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="182" t="s">
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="183" t="s">
+      <c r="F17" s="189" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="183"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="183"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="189"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="183"/>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="183"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="189"/>
     </row>
     <row r="20" spans="1:6" ht="17.45">
-      <c r="A20" s="172"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="174"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="187"/>
       <c r="E20" s="53"/>
       <c r="F20" s="84"/>
     </row>
     <row r="21" spans="1:6" ht="17.45">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="174"/>
+      <c r="A21" s="185"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="187"/>
       <c r="E21" s="53"/>
       <c r="F21" s="84"/>
     </row>
     <row r="22" spans="1:6" ht="17.45">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="187"/>
       <c r="E22" s="53"/>
       <c r="F22" s="84"/>
     </row>
     <row r="23" spans="1:6" ht="17.45">
-      <c r="A23" s="172"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="174"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
       <c r="E23" s="53"/>
       <c r="F23" s="84"/>
     </row>
     <row r="24" spans="1:6" ht="17.45">
-      <c r="A24" s="172"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="174"/>
+      <c r="A24" s="185"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="187"/>
       <c r="E24" s="53"/>
       <c r="F24" s="84"/>
     </row>
     <row r="25" spans="1:6" ht="17.45">
-      <c r="A25" s="172"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="174"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="187"/>
       <c r="E25" s="53"/>
       <c r="F25" s="84"/>
     </row>
     <row r="26" spans="1:6" ht="17.45">
-      <c r="A26" s="172"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="174"/>
+      <c r="A26" s="185"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
       <c r="E26" s="53"/>
       <c r="F26" s="84"/>
     </row>
     <row r="27" spans="1:6" ht="17.45">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="174"/>
+      <c r="A27" s="185"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="187"/>
       <c r="E27" s="53"/>
       <c r="F27" s="84"/>
     </row>
     <row r="28" spans="1:6" ht="17.45">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="174"/>
+      <c r="A28" s="185"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
       <c r="E28" s="53"/>
       <c r="F28" s="84"/>
     </row>
     <row r="29" spans="1:6" ht="17.45">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="174"/>
+      <c r="A29" s="185"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
       <c r="E29" s="53"/>
       <c r="F29" s="84"/>
     </row>
     <row r="31" spans="1:6" ht="15.6">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="170">
+      <c r="E33" s="177">
         <f>'Application Cover Sheet'!B21</f>
         <v>0</v>
       </c>
-      <c r="F33" s="171"/>
+      <c r="F33" s="179"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="108"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="150"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="E36" s="106"/>
-      <c r="F36" s="108"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="150"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="E37" s="106"/>
-      <c r="F37" s="108"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="150"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="E38" s="106"/>
-      <c r="F38" s="108"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="150"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="E39" s="106"/>
-      <c r="F39" s="108"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="150"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="E40" s="106"/>
-      <c r="F40" s="108"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="150"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="E41" s="106"/>
-      <c r="F41" s="108"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="150"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="E42" s="106"/>
-      <c r="F42" s="108"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="150"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="E43" s="106"/>
-      <c r="F43" s="108"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="150"/>
     </row>
     <row r="44" spans="1:6">
       <c r="F44" t="s">
@@ -4024,11 +4024,27 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="42">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -4045,27 +4061,11 @@
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4090,67 +4090,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="198">
+      <c r="B6" s="201">
         <f>'Application Cover Sheet'!B8</f>
         <v>0</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="200"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="203"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="204"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="203"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="206"/>
     </row>
     <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A9" s="20" t="s">
@@ -4158,24 +4158,24 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickTop="1">
-      <c r="A10" s="218" t="s">
+      <c r="A10" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="219"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="198"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="196"/>
-      <c r="B11" s="197"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="200"/>
       <c r="C11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="212" t="s">
+      <c r="D11" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="213"/>
+      <c r="E11" s="216"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -4184,24 +4184,24 @@
       <c r="B12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="214" t="s">
+      <c r="C12" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="214" t="s">
+      <c r="D12" s="217" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="215" t="s">
+      <c r="E12" s="218" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.15" customHeight="1">
-      <c r="A13" s="216" t="s">
+      <c r="A13" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="217"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="215"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="218"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="72"/>
@@ -4344,10 +4344,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="207" t="s">
+      <c r="A28" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="208"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="90">
         <f>SUM(C14:C27)</f>
         <v>0</v>
@@ -4380,10 +4380,10 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="209" t="s">
+      <c r="A32" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="210"/>
+      <c r="B32" s="213"/>
       <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
@@ -4395,8 +4395,8 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="211"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="214"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="88"/>
       <c r="D33" s="56"/>
       <c r="E33" s="94">
@@ -4405,8 +4405,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="211"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="214"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="88"/>
       <c r="D34" s="56"/>
       <c r="E34" s="94">
@@ -4415,8 +4415,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="211"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="214"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="88"/>
       <c r="D35" s="56"/>
       <c r="E35" s="94">
@@ -4425,8 +4425,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" thickBot="1">
-      <c r="A36" s="205"/>
-      <c r="B36" s="206"/>
+      <c r="A36" s="208"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="93"/>
       <c r="D36" s="57"/>
       <c r="E36" s="94">
@@ -4460,11 +4460,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="A6:A7"/>
@@ -4479,6 +4474,11 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4500,59 +4500,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="189"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="169"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="192"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="172"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="192"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="172"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="195"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="175"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="241">
+      <c r="B6" s="221">
         <f>'Application Cover Sheet'!B8</f>
         <v>0</v>
       </c>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
-      <c r="E6" s="243"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="223"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="204"/>
-      <c r="B7" s="244"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="246"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="226"/>
     </row>
     <row r="8" spans="1:5" ht="8.4499999999999993" customHeight="1"/>
     <row r="9" spans="1:5" ht="16.149999999999999" thickBot="1">
@@ -4579,13 +4579,13 @@
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="227"/>
+      <c r="E12" s="233"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="228"/>
+      <c r="E13" s="234"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="62" t="s">
@@ -4597,25 +4597,25 @@
       <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="221"/>
-      <c r="B15" s="222"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="223"/>
+      <c r="A15" s="227"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="229"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="221"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="223"/>
+      <c r="A16" s="227"/>
+      <c r="B16" s="228"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="229"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="224"/>
-      <c r="B17" s="225"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
-      <c r="E17" s="226"/>
+      <c r="A17" s="230"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="232"/>
     </row>
     <row r="18" spans="1:5" ht="15.6">
       <c r="A18" s="40" t="s">
@@ -4624,41 +4624,41 @@
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
       <c r="D18" s="54"/>
-      <c r="E18" s="229"/>
+      <c r="E18" s="235"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="47"/>
-      <c r="E19" s="229"/>
+      <c r="E19" s="235"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="235" t="s">
+      <c r="A20" s="241" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="236"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="237"/>
+      <c r="B20" s="242"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="243"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="231"/>
-      <c r="B21" s="222"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="222"/>
-      <c r="E21" s="223"/>
+      <c r="A21" s="237"/>
+      <c r="B21" s="228"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="229"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="221"/>
-      <c r="B22" s="222"/>
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="223"/>
+      <c r="A22" s="227"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="229"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="224"/>
-      <c r="B23" s="225"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="226"/>
+      <c r="A23" s="230"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="232"/>
     </row>
     <row r="24" spans="1:5" ht="15.6">
       <c r="A24" s="40" t="s">
@@ -4667,89 +4667,89 @@
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="229"/>
+      <c r="E24" s="235"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="47"/>
-      <c r="E25" s="229"/>
+      <c r="E25" s="235"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="235" t="s">
+      <c r="A26" s="241" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="237"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="243"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="238" t="s">
+      <c r="A27" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="239"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="240"/>
+      <c r="B27" s="245"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="246"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="221"/>
-      <c r="B28" s="222"/>
-      <c r="C28" s="222"/>
-      <c r="D28" s="222"/>
-      <c r="E28" s="223"/>
+      <c r="A28" s="227"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="229"/>
     </row>
     <row r="29" spans="1:5" ht="27" customHeight="1">
-      <c r="A29" s="224"/>
-      <c r="B29" s="225"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="226"/>
+      <c r="A29" s="230"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="232"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="235" t="s">
+      <c r="A30" s="241" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="236"/>
-      <c r="C30" s="236"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="237"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="243"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="221"/>
-      <c r="B31" s="222"/>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="223"/>
+      <c r="A31" s="227"/>
+      <c r="B31" s="228"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="229"/>
     </row>
     <row r="32" spans="1:5" ht="34.9" customHeight="1">
-      <c r="A32" s="224"/>
-      <c r="B32" s="225"/>
-      <c r="C32" s="225"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="226"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="231"/>
+      <c r="D32" s="231"/>
+      <c r="E32" s="232"/>
     </row>
     <row r="33" spans="1:5" ht="19.149999999999999" customHeight="1">
-      <c r="A33" s="232" t="s">
+      <c r="A33" s="238" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="233"/>
-      <c r="C33" s="233"/>
-      <c r="D33" s="233"/>
-      <c r="E33" s="234"/>
+      <c r="B33" s="239"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="240"/>
     </row>
     <row r="34" spans="1:5" ht="19.149999999999999" customHeight="1">
-      <c r="A34" s="221"/>
-      <c r="B34" s="222"/>
-      <c r="C34" s="222"/>
-      <c r="D34" s="222"/>
-      <c r="E34" s="223"/>
+      <c r="A34" s="227"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="229"/>
     </row>
     <row r="35" spans="1:5" ht="25.9" customHeight="1">
-      <c r="A35" s="224"/>
-      <c r="B35" s="225"/>
-      <c r="C35" s="225"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="226"/>
+      <c r="A35" s="230"/>
+      <c r="B35" s="231"/>
+      <c r="C35" s="231"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1">
       <c r="A36" s="63" t="s">
@@ -4758,7 +4758,7 @@
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
-      <c r="E36" s="230"/>
+      <c r="E36" s="236"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="43" t="s">
@@ -4767,7 +4767,7 @@
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
       <c r="D37" s="41"/>
-      <c r="E37" s="230"/>
+      <c r="E37" s="236"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="58" t="s">
@@ -4779,25 +4779,25 @@
       <c r="E38" s="61"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="221"/>
-      <c r="B39" s="222"/>
-      <c r="C39" s="222"/>
-      <c r="D39" s="222"/>
-      <c r="E39" s="223"/>
+      <c r="A39" s="227"/>
+      <c r="B39" s="228"/>
+      <c r="C39" s="228"/>
+      <c r="D39" s="228"/>
+      <c r="E39" s="229"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="221"/>
-      <c r="B40" s="222"/>
-      <c r="C40" s="222"/>
-      <c r="D40" s="222"/>
-      <c r="E40" s="223"/>
+      <c r="A40" s="227"/>
+      <c r="B40" s="228"/>
+      <c r="C40" s="228"/>
+      <c r="D40" s="228"/>
+      <c r="E40" s="229"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="224"/>
-      <c r="B41" s="225"/>
-      <c r="C41" s="225"/>
-      <c r="D41" s="225"/>
-      <c r="E41" s="226"/>
+      <c r="A41" s="230"/>
+      <c r="B41" s="231"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="232"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="41"/>
@@ -4811,12 +4811,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="21">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
     <mergeCell ref="A39:E41"/>
     <mergeCell ref="A34:E35"/>
     <mergeCell ref="A28:E29"/>
@@ -4832,6 +4826,12 @@
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4854,35 +4854,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
@@ -4891,13 +4891,13 @@
       <c r="A5" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="273">
+      <c r="B5" s="256">
         <f>'Application Cover Sheet'!B8</f>
         <v>0</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="275"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="258"/>
     </row>
     <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A6" s="20" t="s">
@@ -4928,14 +4928,14 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="46"/>
-      <c r="E9" s="268"/>
+      <c r="E9" s="259"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="47" t="s">
         <v>91</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="269"/>
+      <c r="E10" s="260"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="62" t="s">
@@ -4947,11 +4947,11 @@
       <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="255"/>
-      <c r="B12" s="256"/>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="257"/>
+      <c r="A12" s="263"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="265"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="247"/>
@@ -4978,10 +4978,10 @@
       <c r="A16" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="258"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="264">
+      <c r="B16" s="266"/>
+      <c r="C16" s="267"/>
+      <c r="D16" s="268"/>
+      <c r="E16" s="272">
         <f>B16+B17</f>
         <v>0</v>
       </c>
@@ -4990,44 +4990,44 @@
       <c r="A17" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="261"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="263"/>
-      <c r="E17" s="264"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="270"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="272"/>
     </row>
     <row r="18" spans="1:5" ht="15.6">
       <c r="A18" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="170">
+      <c r="B18" s="177">
         <f>SUM(B16:B17)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="176"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="265"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="273"/>
     </row>
     <row r="19" spans="1:5" ht="15.6">
-      <c r="A19" s="253" t="s">
+      <c r="A19" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="254"/>
-      <c r="C19" s="254"/>
-      <c r="D19" s="254"/>
-      <c r="E19" s="268"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="262"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="259"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="47"/>
-      <c r="E20" s="269"/>
+      <c r="E20" s="260"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="235" t="s">
+      <c r="A21" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="236"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="237"/>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="243"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="247"/>
@@ -5057,23 +5057,23 @@
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="46"/>
-      <c r="E25" s="268"/>
+      <c r="E25" s="259"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="80"/>
       <c r="B26" s="78"/>
       <c r="C26" s="78"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="269"/>
+      <c r="E26" s="260"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="235" t="s">
+      <c r="A27" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="237"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="243"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="247"/>
@@ -5103,7 +5103,7 @@
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="46"/>
-      <c r="E31" s="268"/>
+      <c r="E31" s="259"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="79" t="s">
@@ -5112,16 +5112,16 @@
       <c r="B32" s="78"/>
       <c r="C32" s="78"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="269"/>
+      <c r="E32" s="260"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="235" t="s">
+      <c r="A33" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="237"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="243"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="247"/>
@@ -5165,11 +5165,11 @@
         <v>100</v>
       </c>
       <c r="D39" s="46"/>
-      <c r="E39" s="266"/>
+      <c r="E39" s="274"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="47"/>
-      <c r="E40" s="267"/>
+      <c r="E40" s="275"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="62" t="s">
@@ -5203,23 +5203,23 @@
     </row>
     <row r="45" spans="1:6" ht="8.4499999999999993" hidden="1" customHeight="1" thickBot="1"/>
     <row r="46" spans="1:6" ht="30.6" customHeight="1">
-      <c r="A46" s="270" t="s">
+      <c r="A46" s="253" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="271"/>
-      <c r="C46" s="271"/>
-      <c r="D46" s="272"/>
+      <c r="B46" s="254"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="255"/>
       <c r="E46" s="96"/>
       <c r="F46" s="47"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="232" t="s">
+      <c r="A47" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="233"/>
-      <c r="C47" s="233"/>
-      <c r="D47" s="233"/>
-      <c r="E47" s="234"/>
+      <c r="B47" s="239"/>
+      <c r="C47" s="239"/>
+      <c r="D47" s="239"/>
+      <c r="E47" s="240"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="247"/>
@@ -5250,15 +5250,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="25">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A42:E44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A34:E36"/>
     <mergeCell ref="A48:E50"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A12:E15"/>
@@ -5275,6 +5266,15 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A42:E44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A34:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.45" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5299,65 +5299,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="159"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="198">
+      <c r="B6" s="153"/>
+      <c r="C6" s="201">
         <f>'Application Cover Sheet'!B8</f>
         <v>0</v>
       </c>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="200"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="203"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="115"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="203"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="206"/>
     </row>
     <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="20" t="s">
@@ -5378,49 +5378,49 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="278" t="s">
+      <c r="A12" s="276" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="278"/>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
+      <c r="B12" s="276"/>
+      <c r="C12" s="276"/>
+      <c r="D12" s="276"/>
+      <c r="E12" s="276"/>
+      <c r="F12" s="276"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="278"/>
-      <c r="B13" s="278"/>
-      <c r="C13" s="278"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="278"/>
+      <c r="A13" s="276"/>
+      <c r="B13" s="276"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="276"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="278"/>
-      <c r="B14" s="278"/>
-      <c r="C14" s="278"/>
-      <c r="D14" s="278"/>
-      <c r="E14" s="278"/>
-      <c r="F14" s="278"/>
+      <c r="A14" s="276"/>
+      <c r="B14" s="276"/>
+      <c r="C14" s="276"/>
+      <c r="D14" s="276"/>
+      <c r="E14" s="276"/>
+      <c r="F14" s="276"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="213" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210" t="s">
+      <c r="C15" s="213"/>
+      <c r="D15" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="210"/>
-      <c r="F15" s="183" t="s">
+      <c r="E15" s="213"/>
+      <c r="F15" s="189" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="183"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="6" t="s">
         <v>109</v>
       </c>
@@ -5433,7 +5433,7 @@
       <c r="E16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="183"/>
+      <c r="F16" s="189"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="56"/>
@@ -5582,21 +5582,21 @@
       <c r="F33" s="27"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1">
-      <c r="A35" s="182" t="s">
+      <c r="A35" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="182"/>
-      <c r="C35" s="276">
+      <c r="B35" s="188"/>
+      <c r="C35" s="277">
         <f>+E33+C33</f>
         <v>0</v>
       </c>
-      <c r="D35" s="277"/>
+      <c r="D35" s="278"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="182"/>
-      <c r="B36" s="182"/>
-      <c r="C36" s="277"/>
-      <c r="D36" s="277"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="278"/>
+      <c r="D36" s="278"/>
     </row>
     <row r="46" spans="1:6">
       <c r="F46" t="s">
@@ -5606,6 +5606,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -5613,12 +5619,6 @@
     <mergeCell ref="A12:F14"/>
     <mergeCell ref="C6:F7"/>
     <mergeCell ref="A6:B7"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5641,65 +5641,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="189"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="169"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="192"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="192"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="195"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="175"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="198">
+      <c r="B6" s="201">
         <f>'Application Cover Sheet'!B8</f>
         <v>0</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="200"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="203"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="204"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="203"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="206"/>
     </row>
     <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="20" t="s">
@@ -5707,55 +5707,55 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="D10" s="290" t="s">
+      <c r="D10" s="279" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="279"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="D11" s="290"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="290"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="279"/>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="185"/>
-      <c r="C12" s="185"/>
-      <c r="D12" s="284">
+      <c r="B12" s="191"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="289">
         <f>SUM(D13:F15)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="284"/>
-      <c r="F12" s="284"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="289"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="280"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="279">
+      <c r="B13" s="286"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="282">
         <f>'Budget Justification Worksheet'!C28</f>
         <v>0</v>
       </c>
-      <c r="E13" s="279"/>
-      <c r="F13" s="279"/>
+      <c r="E13" s="282"/>
+      <c r="F13" s="282"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="280"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="279">
+      <c r="B14" s="286"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="282">
         <f>'Budget Justification Worksheet'!E28</f>
         <v>0</v>
       </c>
-      <c r="E14" s="279"/>
-      <c r="F14" s="279"/>
+      <c r="E14" s="282"/>
+      <c r="F14" s="282"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="287">
+      <c r="D15" s="283">
         <f>'Budget Justification Worksheet'!E37</f>
         <v>0</v>
       </c>
-      <c r="E15" s="288"/>
-      <c r="F15" s="289"/>
+      <c r="E15" s="284"/>
+      <c r="F15" s="285"/>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" s="98"/>
@@ -5776,46 +5776,46 @@
       <c r="F16" s="98"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="286" t="s">
+      <c r="A17" s="288" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="286"/>
-      <c r="C17" s="286"/>
-      <c r="D17" s="284">
+      <c r="B17" s="288"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="289">
         <f>SUM(D18:F28)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="284"/>
-      <c r="F17" s="284"/>
+      <c r="E17" s="289"/>
+      <c r="F17" s="289"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="291" t="s">
+      <c r="A18" s="280" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="292"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="279">
+      <c r="B18" s="281"/>
+      <c r="C18" s="281"/>
+      <c r="D18" s="282">
         <f>'Budget Worksheet Continued pg2'!E12</f>
         <v>0</v>
       </c>
-      <c r="E18" s="279"/>
-      <c r="F18" s="279"/>
+      <c r="E18" s="282"/>
+      <c r="F18" s="282"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="292"/>
-      <c r="B19" s="292"/>
-      <c r="C19" s="292"/>
-      <c r="D19" s="279"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
+      <c r="A19" s="281"/>
+      <c r="B19" s="281"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="292"/>
-      <c r="B20" s="292"/>
-      <c r="C20" s="292"/>
-      <c r="D20" s="279"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="279"/>
+      <c r="A20" s="281"/>
+      <c r="B20" s="281"/>
+      <c r="C20" s="281"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="282"/>
+      <c r="F20" s="282"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="279">
+      <c r="D21" s="282">
         <f>'Budget Worksheet Continued pg2'!E18</f>
         <v>0</v>
       </c>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
+      <c r="E21" s="282"/>
+      <c r="F21" s="282"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
@@ -5836,64 +5836,64 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="279">
+      <c r="D22" s="282">
         <f>'Budget Worksheet Continued pg2'!E24</f>
         <v>0</v>
       </c>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
+      <c r="E22" s="282"/>
+      <c r="F22" s="282"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="180" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="280"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="279">
+      <c r="B23" s="286"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="282">
         <f>'Budget Worksheet Continued pg2'!E36</f>
         <v>0</v>
       </c>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="282"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="280"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="279">
+      <c r="B24" s="286"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="282">
         <f>'Budget Worksheet Continued pg3'!E9</f>
         <v>0</v>
       </c>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
+      <c r="E24" s="282"/>
+      <c r="F24" s="282"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="177" t="s">
+      <c r="A25" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="280"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="279">
+      <c r="B25" s="286"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="282">
         <f>'Budget Worksheet Continued pg3'!E16</f>
         <v>0</v>
       </c>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
+      <c r="E25" s="282"/>
+      <c r="F25" s="282"/>
     </row>
     <row r="26" spans="1:6" ht="31.9" customHeight="1">
-      <c r="A26" s="291" t="s">
+      <c r="A26" s="280" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="291"/>
-      <c r="C26" s="291"/>
-      <c r="D26" s="279">
+      <c r="B26" s="280"/>
+      <c r="C26" s="280"/>
+      <c r="D26" s="282">
         <f>'Budget Worksheet Continued pg3'!E19</f>
         <v>0</v>
       </c>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
+      <c r="E26" s="282"/>
+      <c r="F26" s="282"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
@@ -5901,25 +5901,25 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="279">
+      <c r="D27" s="282">
         <f>'Budget Worksheet Continued pg3'!E25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
+      <c r="E27" s="282"/>
+      <c r="F27" s="282"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="180" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="280"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="279">
+      <c r="B28" s="286"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="282">
         <f>'Budget Worksheet Continued pg3'!E31</f>
         <v>0</v>
       </c>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
+      <c r="E28" s="282"/>
+      <c r="F28" s="282"/>
     </row>
     <row r="29" spans="1:6">
       <c r="D29" s="98"/>
@@ -5927,43 +5927,43 @@
       <c r="F29" s="98"/>
     </row>
     <row r="30" spans="1:6" ht="15.6">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="284">
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="289">
         <f>SUM(D31:F32)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="284"/>
-      <c r="F30" s="284"/>
+      <c r="E30" s="289"/>
+      <c r="F30" s="289"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="279">
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="282">
         <f>'Budget Worksheet Continued pg3'!E39</f>
         <v>0</v>
       </c>
-      <c r="E31" s="279"/>
-      <c r="F31" s="279"/>
+      <c r="E31" s="282"/>
+      <c r="F31" s="282"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="184"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="279">
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="282">
         <f>'Budget Worksheet Continued pg3'!E46</f>
         <v>0</v>
       </c>
-      <c r="E32" s="279"/>
-      <c r="F32" s="279"/>
+      <c r="E32" s="282"/>
+      <c r="F32" s="282"/>
     </row>
     <row r="33" spans="1:6">
       <c r="D33" s="98"/>
@@ -5971,17 +5971,17 @@
       <c r="F33" s="98"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
-      <c r="A34" s="281" t="s">
+      <c r="A34" s="290" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="282"/>
-      <c r="C34" s="283"/>
-      <c r="D34" s="279">
+      <c r="B34" s="291"/>
+      <c r="C34" s="292"/>
+      <c r="D34" s="282">
         <f>+D30+D17+D12</f>
         <v>0</v>
       </c>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
+      <c r="E34" s="282"/>
+      <c r="F34" s="282"/>
     </row>
     <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="24" t="s">
@@ -5989,25 +5989,25 @@
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="279">
+      <c r="D35" s="282">
         <f>'Budget Worksheet Continued pg4'!C35</f>
         <v>0</v>
       </c>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
+      <c r="E35" s="282"/>
+      <c r="F35" s="282"/>
     </row>
     <row r="36" spans="1:6" ht="34.15" customHeight="1">
-      <c r="A36" s="285" t="s">
+      <c r="A36" s="287" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="285"/>
-      <c r="C36" s="285"/>
-      <c r="D36" s="287">
+      <c r="B36" s="287"/>
+      <c r="C36" s="287"/>
+      <c r="D36" s="283">
         <f>D34-D35</f>
         <v>0</v>
       </c>
-      <c r="E36" s="288"/>
-      <c r="F36" s="289"/>
+      <c r="E36" s="284"/>
+      <c r="F36" s="285"/>
     </row>
     <row r="43" spans="1:6">
       <c r="F43" t="s">
@@ -6017,26 +6017,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="42">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="A18:C20"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D18:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A17:C17"/>
@@ -6053,12 +6039,26 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="A18:C20"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D18:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6066,34 +6066,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DateRime xmlns="0d5724bb-6d4d-4444-9c78-abf93f7f4d4c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0d5724bb-6d4d-4444-9c78-abf93f7f4d4c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="398c9006-77fe-4d9c-8605-276e9a552a3a" xsi:nil="true"/>
-    <SharedWithUsers xmlns="398c9006-77fe-4d9c-8605-276e9a552a3a">
-      <UserInfo>
-        <DisplayName>Jesse Dudgeon</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3313E0BAC6E0146A3FBDAB3B05A50E1" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="defdc708fc004acf06a6636623a581d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d5724bb-6d4d-4444-9c78-abf93f7f4d4c" xmlns:ns3="398c9006-77fe-4d9c-8605-276e9a552a3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="487b4d455d8375f5425d98f58814a50c" ns2:_="" ns3:_="">
     <xsd:import namespace="0d5724bb-6d4d-4444-9c78-abf93f7f4d4c"/>
@@ -6354,8 +6326,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DateRime xmlns="0d5724bb-6d4d-4444-9c78-abf93f7f4d4c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0d5724bb-6d4d-4444-9c78-abf93f7f4d4c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="398c9006-77fe-4d9c-8605-276e9a552a3a" xsi:nil="true"/>
+    <SharedWithUsers xmlns="398c9006-77fe-4d9c-8605-276e9a552a3a">
+      <UserInfo>
+        <DisplayName>Jesse Dudgeon</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED1F98C-67C9-4D2D-967B-7AEEFF1AD7D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30BDD460-A45D-4F19-847D-950536C8075E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6363,5 +6363,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30BDD460-A45D-4F19-847D-950536C8075E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED1F98C-67C9-4D2D-967B-7AEEFF1AD7D2}"/>
 </file>